--- a/src/backend/matrix.xlsx
+++ b/src/backend/matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\palkkatuki\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB84656-CE3A-4E78-9463-778C38FD67AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137B81D-9015-437D-9922-2B68E68A6177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551812B2-44AD-404A-BFEE-8A80C63EF6D9}"/>
   </bookViews>
@@ -385,33 +385,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -470,6 +443,33 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -506,29 +506,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CB9B4870-A082-472F-BAC1-7D8B46C62300}" name="Ikä" displayName="Ikä" ref="A1:M481" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CB9B4870-A082-472F-BAC1-7D8B46C62300}" name="Ikä" displayName="Ikä" ref="A1:M481" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:M481" xr:uid="{CB9B4870-A082-472F-BAC1-7D8B46C62300}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{67101A17-4822-4655-8D2B-A48DC313F938}" uniqueName="1" name="ikä?" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{F2DC08D7-BEB7-4A0A-8C76-8D9752A70E91}" uniqueName="2" name="työttömyyden kesto?" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{1355A951-2F05-42A6-AE91-495D8195816F}" uniqueName="3" name="Onko toisen asteen tutkintoa?" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{81F4A437-D89C-4F5A-B240-9DCCA4347F39}" uniqueName="4" name="Onko ollut toistaiseksi voimassa ollutta työsopimusta edellisen 6 kk:n aikana?" queryTableFieldId="4" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{028DB42A-CA51-427A-A0AC-B80E6117825F}" uniqueName="5" name="Onko alentunut työkyky?" queryTableFieldId="5" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{36A52144-8703-40E0-8C75-F54000A0D6FC}" uniqueName="6" name="Onko kyseessä oppisopimus?" queryTableFieldId="6" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{A5FCC178-AEB9-4FD6-A58A-1C13FD708D9A}" uniqueName="7" name="Onko kotoutumissuunnitelman piirissä?" queryTableFieldId="7" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{F708FC75-C73F-4B72-8D12-4DD61BC81BF2}" uniqueName="8" name="Onko mahdollista" queryTableFieldId="8" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{BF428B9D-90B1-4DA3-8D78-696E671E7EC8}" uniqueName="9" name="Kesto maksimissaan" queryTableFieldId="9" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{0CCA9915-B035-4160-8FA6-964DC4C3E634}" uniqueName="10" name="Tuki maksimissaan kuukaudessa" queryTableFieldId="10" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{3590D469-EB68-4418-950C-849F50017F55}" uniqueName="11" name="Prosentti" queryTableFieldId="11" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{7491099F-A911-470B-9B3E-E788E52A696F}" uniqueName="12" name="Huom!" queryTableFieldId="12" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{6192BFA4-F0A1-4E87-8273-1CC1A6E096C7}" uniqueName="13" name="Huom! 2" queryTableFieldId="13" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{67101A17-4822-4655-8D2B-A48DC313F938}" uniqueName="1" name="ikä?" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F2DC08D7-BEB7-4A0A-8C76-8D9752A70E91}" uniqueName="2" name="työttömyyden kesto?" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{1355A951-2F05-42A6-AE91-495D8195816F}" uniqueName="3" name="Onko toisen asteen tutkintoa?" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{81F4A437-D89C-4F5A-B240-9DCCA4347F39}" uniqueName="4" name="Onko ollut toistaiseksi voimassa ollutta työsopimusta edellisen 6 kk:n aikana?" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{028DB42A-CA51-427A-A0AC-B80E6117825F}" uniqueName="5" name="Onko alentunut työkyky?" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{36A52144-8703-40E0-8C75-F54000A0D6FC}" uniqueName="6" name="Onko kyseessä oppisopimus?" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A5FCC178-AEB9-4FD6-A58A-1C13FD708D9A}" uniqueName="7" name="Onko kotoutumissuunnitelman piirissä?" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F708FC75-C73F-4B72-8D12-4DD61BC81BF2}" uniqueName="8" name="Onko mahdollista" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{BF428B9D-90B1-4DA3-8D78-696E671E7EC8}" uniqueName="9" name="Kesto maksimissaan" queryTableFieldId="9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{0CCA9915-B035-4160-8FA6-964DC4C3E634}" uniqueName="10" name="Tuki maksimissaan kuukaudessa" queryTableFieldId="10" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{3590D469-EB68-4418-950C-849F50017F55}" uniqueName="11" name="Prosentti" queryTableFieldId="11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{7491099F-A911-470B-9B3E-E788E52A696F}" uniqueName="12" name="Huom!" queryTableFieldId="12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{6192BFA4-F0A1-4E87-8273-1CC1A6E096C7}" uniqueName="13" name="Huom! 2" queryTableFieldId="13" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A08C09EE-6020-454A-99B7-F3489AD38377}" name="Table4" displayName="Table4" ref="A1:A6" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A08C09EE-6020-454A-99B7-F3489AD38377}" name="Table4" displayName="Table4" ref="A1:A6" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:A6" xr:uid="{A08C09EE-6020-454A-99B7-F3489AD38377}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{06CC5136-384A-4C0E-8BAA-253A38FBA374}" name="ikä?"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BAC74260-D700-4A8D-8156-57C9207717E2}" name="Table5" displayName="Table5" ref="C1:C3" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BAC74260-D700-4A8D-8156-57C9207717E2}" name="Table5" displayName="Table5" ref="C1:C3" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="C1:C3" xr:uid="{BAC74260-D700-4A8D-8156-57C9207717E2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B05C8391-DBE5-4873-B9D3-B1F4322415F2}" name="Onko toisen asteen tutkintoa?"/>
@@ -548,17 +548,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{645F5FD4-B51C-48BF-91D0-F4C3D58BC75B}" name="Table6" displayName="Table6" ref="B1:B4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{645F5FD4-B51C-48BF-91D0-F4C3D58BC75B}" name="Table6" displayName="Table6" ref="B1:B4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B1:B4" xr:uid="{645F5FD4-B51C-48BF-91D0-F4C3D58BC75B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5F0766F8-40E3-4D8E-A2C5-BC137B7AB994}" name="työttömyyden kesto?" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{5F0766F8-40E3-4D8E-A2C5-BC137B7AB994}" name="työttömyyden kesto?" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F3E1914D-F982-4F17-9BCA-BB275D503FDB}" name="Table7" displayName="Table7" ref="D1:D3" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F3E1914D-F982-4F17-9BCA-BB275D503FDB}" name="Table7" displayName="Table7" ref="D1:D3" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="D1:D3" xr:uid="{F3E1914D-F982-4F17-9BCA-BB275D503FDB}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{961D1748-9DE6-4D75-A0FB-16AE95B9CEAD}" name="Onko ollut toistaiseksi voimassa ollutta työsopimusta edellisen 6 kk:n aikana?"/>
@@ -568,7 +568,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E9620F99-B64C-453E-9762-673D354B6B10}" name="Table8" displayName="Table8" ref="E1:E3" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E9620F99-B64C-453E-9762-673D354B6B10}" name="Table8" displayName="Table8" ref="E1:E3" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="E1:E3" xr:uid="{E9620F99-B64C-453E-9762-673D354B6B10}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F4CCF96B-1939-401B-99AF-B7EA02E6CB5E}" name="Onko alentunut työkyky?"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C280D2D-9A07-4FA3-A2B4-C5BEDBEF9CE7}" name="Table9" displayName="Table9" ref="F1:F3" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C280D2D-9A07-4FA3-A2B4-C5BEDBEF9CE7}" name="Table9" displayName="Table9" ref="F1:F3" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="F1:F3" xr:uid="{8C280D2D-9A07-4FA3-A2B4-C5BEDBEF9CE7}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{B880A1BA-55C2-472D-B513-9279CC7A1B36}" name="Onko kyseessä oppisopimus?"/>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8C62A2D6-D157-4042-8E75-BF6D6AAC0C7E}" name="Table10" displayName="Table10" ref="G1:G3" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8C62A2D6-D157-4042-8E75-BF6D6AAC0C7E}" name="Table10" displayName="Table10" ref="G1:G3" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="G1:G3" xr:uid="{8C62A2D6-D157-4042-8E75-BF6D6AAC0C7E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5E9D13E7-4315-47D2-8BD9-79D8B0E187DF}" name="Onko kotoutumissuunnitelman piirissä?"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E81EA-47AD-485D-B634-D4AC573F1804}">
   <dimension ref="A1:M974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F488" sqref="F488"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
